--- a/sem1/СО-ИП-21-1.xlsx
+++ b/sem1/СО-ИП-21-1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59209DE3-CA02-0040-A708-C96DE3A66410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264017CF-070E-AE47-8F23-D3327F137EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28020" windowHeight="16440" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="30">
   <si>
     <t>№</t>
   </si>
@@ -119,6 +120,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>Лаб 1</t>
   </si>
 </sst>
 </file>
@@ -503,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,7 +522,7 @@
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +535,14 @@
       <c r="D1" s="6">
         <v>45170</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6">
+        <v>45177</v>
+      </c>
+      <c r="F1" s="6">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -542,8 +555,14 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -556,8 +575,14 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -570,8 +595,14 @@
       <c r="D4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -584,8 +615,14 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -598,8 +635,14 @@
       <c r="D6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -612,8 +655,14 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -626,8 +675,14 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -640,8 +695,14 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -654,8 +715,14 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -668,8 +735,14 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -682,8 +755,14 @@
       <c r="D12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -696,8 +775,14 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -710,8 +795,14 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -724,8 +815,14 @@
       <c r="D15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -738,8 +835,14 @@
       <c r="D16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -752,8 +855,14 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -766,8 +875,14 @@
       <c r="D18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -780,8 +895,14 @@
       <c r="D19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -794,8 +915,14 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -808,8 +935,14 @@
       <c r="D21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -822,8 +955,14 @@
       <c r="D22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -836,8 +975,14 @@
       <c r="D23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -850,8 +995,14 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -862,6 +1013,288 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBEA7E05-0C8D-4D46-85EA-C6A53E1C16A0}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScale="164" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
     </row>

--- a/sem1/СО-ИП-21-1.xlsx
+++ b/sem1/СО-ИП-21-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thebandik/Library/Mobile Documents/com~apple~CloudDocs/General/Работа/Колледж/GitHub/computer-networks/sem1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264017CF-070E-AE47-8F23-D3327F137EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507CFD02-6D1F-6A41-B052-FCB351B24070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{FC27C38E-9ABF-974E-A8A9-545A483FD647}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="31">
   <si>
     <t>№</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Лаб 1</t>
+  </si>
+  <si>
+    <t>Лаб 2</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5961381-B486-7347-9516-2D649BC2D27D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,7 +525,7 @@
     <col min="2" max="2" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,8 +544,11 @@
       <c r="F1" s="6">
         <v>45177</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6">
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -561,8 +567,11 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -581,8 +590,11 @@
       <c r="F3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -601,8 +613,11 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -621,8 +636,11 @@
       <c r="F5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -641,8 +659,11 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -661,8 +682,11 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -681,8 +705,11 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -701,8 +728,11 @@
       <c r="F9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -721,8 +751,11 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -741,8 +774,11 @@
       <c r="F11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -761,8 +797,11 @@
       <c r="F12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -781,8 +820,11 @@
       <c r="F13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -801,8 +843,11 @@
       <c r="F14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -821,8 +866,11 @@
       <c r="F15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -839,10 +887,13 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -861,8 +912,11 @@
       <c r="F17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -881,8 +935,11 @@
       <c r="F18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -901,8 +958,11 @@
       <c r="F19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -921,8 +981,11 @@
       <c r="F20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -941,8 +1004,11 @@
       <c r="F21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -961,8 +1027,11 @@
       <c r="F22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -981,8 +1050,11 @@
       <c r="F23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1001,8 +1073,11 @@
       <c r="F24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1019,6 +1094,9 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1032,7 +1110,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="164" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1129,9 @@
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1062,6 +1142,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1071,6 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1080,6 +1162,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1089,6 +1172,9 @@
         <v>5</v>
       </c>
       <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1098,6 +1184,9 @@
         <v>6</v>
       </c>
       <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1109,6 +1198,9 @@
       <c r="C7" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1120,6 +1212,9 @@
       <c r="C8" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1129,6 +1224,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1140,6 +1236,9 @@
       <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1151,6 +1250,7 @@
       <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1159,7 +1259,10 @@
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1171,6 +1274,7 @@
       <c r="C13" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1182,6 +1286,9 @@
       <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1191,6 +1298,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1202,8 +1310,11 @@
       <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1211,8 +1322,9 @@
         <v>17</v>
       </c>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1220,8 +1332,9 @@
         <v>18</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1231,8 +1344,11 @@
       <c r="C19" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1242,8 +1358,9 @@
       <c r="C20" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1253,8 +1370,11 @@
       <c r="C21" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1264,8 +1384,11 @@
       <c r="C22" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1275,8 +1398,11 @@
       <c r="C23" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1286,8 +1412,11 @@
       <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1295,6 +1424,9 @@
         <v>25</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
     </row>
